--- a/Input/Senarios.xlsx
+++ b/Input/Senarios.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -95,8 +96,90 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Some where in the paper said it must be greater than one</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Some where in the paper said it must be greater than one</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+برای استفاده از میانگین خالی گذاشته شود</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>SenarioName</t>
   </si>
@@ -129,6 +212,21 @@
   </si>
   <si>
     <t>CoverOut</t>
+  </si>
+  <si>
+    <t>JustSimulation</t>
+  </si>
+  <si>
+    <t>sen1</t>
+  </si>
+  <si>
+    <t>sen2</t>
+  </si>
+  <si>
+    <t>sen4</t>
+  </si>
+  <si>
+    <t>sen21</t>
   </si>
 </sst>
 </file>
@@ -483,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,9 +592,11 @@
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,37 +627,145 @@
       <c r="J1" t="s">
         <v>10</v>
       </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.7</v>
+      </c>
+      <c r="H2">
+        <v>20000</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1.7</v>
+      </c>
+      <c r="H3">
+        <v>20000</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4">
         <v>1.5</v>
       </c>
-      <c r="C2">
-        <v>0.2</v>
-      </c>
-      <c r="D2">
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>0.3</v>
+      </c>
+      <c r="H4">
+        <v>20000</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.75</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>0.5</v>
-      </c>
-      <c r="F2">
-        <v>0.3</v>
-      </c>
-      <c r="G2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H2">
-        <v>1000</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>20000</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -565,4 +773,196 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A2:K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>0.75</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>200000</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1.7</v>
+      </c>
+      <c r="H3">
+        <v>200000</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>1.5</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>0.3</v>
+      </c>
+      <c r="H4">
+        <v>200000</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>200000</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Input/Senarios.xlsx
+++ b/Input/Senarios.xlsx
@@ -7,8 +7,9 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -178,8 +179,90 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Some where in the paper said it must be greater than one</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Some where in the paper said it must be greater than one</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+برای استفاده از میانگین خالی گذاشته شود</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
   <si>
     <t>SenarioName</t>
   </si>
@@ -581,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,132 +722,30 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.7</v>
+        <v>0.15</v>
       </c>
       <c r="H2">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1.7</v>
-      </c>
-      <c r="H3">
-        <v>20000</v>
-      </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>0.1</v>
-      </c>
-      <c r="D4">
-        <v>1.5</v>
-      </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-      <c r="F4">
-        <v>0.3</v>
-      </c>
-      <c r="H4">
-        <v>20000</v>
-      </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>0.1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0.5</v>
-      </c>
-      <c r="E5">
-        <v>0.75</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>20000</v>
-      </c>
-      <c r="I5">
-        <v>100</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
         <v>0</v>
       </c>
     </row>
@@ -776,6 +757,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>

--- a/Input/Senarios.xlsx
+++ b/Input/Senarios.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -29,7 +29,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -38,14 +38,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Some where in the paper said it must be greater than one</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -62,7 +62,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Some where in the paper said it must be greater than one</t>
@@ -77,7 +77,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -86,7 +86,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 برای استفاده از میانگین خالی گذاشته شود</t>
@@ -111,7 +111,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -120,14 +120,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Some where in the paper said it must be greater than one</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +135,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -144,7 +144,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Some where in the paper said it must be greater than one</t>
@@ -159,7 +159,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -168,7 +168,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 برای استفاده از میانگین خالی گذاشته شود</t>
@@ -193,7 +193,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -202,14 +202,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Some where in the paper said it must be greater than one</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -217,7 +217,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -226,7 +226,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Some where in the paper said it must be greater than one</t>
@@ -241,7 +241,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -250,7 +250,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 برای استفاده از میانگین خالی گذاشته شود</t>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
   <si>
     <t>SenarioName</t>
   </si>
@@ -309,14 +309,35 @@
     <t>sen4</t>
   </si>
   <si>
-    <t>sen21</t>
+    <t>sen5</t>
+  </si>
+  <si>
+    <t>sen6</t>
+  </si>
+  <si>
+    <t>sen7</t>
+  </si>
+  <si>
+    <t>sen8</t>
+  </si>
+  <si>
+    <t>sen9</t>
+  </si>
+  <si>
+    <t>WindowsSize</t>
+  </si>
+  <si>
+    <t>DropDominated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,14 +349,21 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -355,13 +383,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -664,10 +698,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0.75</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.25</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.75</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.75</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.75</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0.25</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.75</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>0.25</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.25</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <v>0.25</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <v>0.25</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.75</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,68 +1095,71 @@
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="F2">
         <v>0.75</v>
       </c>
-      <c r="D2">
-        <v>0.5</v>
-      </c>
-      <c r="E2">
-        <v>0.75</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
-      </c>
-      <c r="G2">
-        <v>0.15</v>
-      </c>
       <c r="H2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -749,94 +1168,35 @@
         <v>0</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1000</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.25</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>0</v>
       </c>
     </row>
@@ -849,192 +1209,102 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A2:K5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>200000</v>
+        <v>0.25</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1000</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1.7</v>
-      </c>
-      <c r="H3">
-        <v>200000</v>
-      </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>0.1</v>
-      </c>
-      <c r="D4">
-        <v>1.5</v>
-      </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-      <c r="F4">
-        <v>0.3</v>
-      </c>
-      <c r="H4">
-        <v>200000</v>
-      </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>200000</v>
-      </c>
-      <c r="I5">
-        <v>100</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
+      <c r="M2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Input/Senarios.xlsx
+++ b/Input/Senarios.xlsx
@@ -7,9 +7,11 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1 (5)" sheetId="9" r:id="rId1"/>
+    <sheet name="Sheet1 (3)" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet1 (4)" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3 (2)" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -261,8 +263,172 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Some where in the paper said it must be greater than one</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Some where in the paper said it must be greater than one</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+برای استفاده از میانگین خالی گذاشته شود</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Some where in the paper said it must be greater than one</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Some where in the paper said it must be greater than one</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+برای استفاده از میانگین خالی گذاشته شود</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="34">
   <si>
     <t>SenarioName</t>
   </si>
@@ -328,16 +494,49 @@
   </si>
   <si>
     <t>DropDominated</t>
+  </si>
+  <si>
+    <t>sen90</t>
+  </si>
+  <si>
+    <t>sen91</t>
+  </si>
+  <si>
+    <t>sen11</t>
+  </si>
+  <si>
+    <t>sen21</t>
+  </si>
+  <si>
+    <t>sen31</t>
+  </si>
+  <si>
+    <t>sen41</t>
+  </si>
+  <si>
+    <t>sen51</t>
+  </si>
+  <si>
+    <t>sen61</t>
+  </si>
+  <si>
+    <t>sen71</t>
+  </si>
+  <si>
+    <t>sen81</t>
+  </si>
+  <si>
+    <t>sen100</t>
+  </si>
+  <si>
+    <t>sen101</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,13 +557,6 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -383,19 +575,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -698,15 +887,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -715,50 +904,50 @@
     <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
+      <c r="A2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -770,305 +959,25 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>0.75</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0.75</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.75</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0.5</v>
-      </c>
-      <c r="F5">
-        <v>0.25</v>
-      </c>
-      <c r="H5">
-        <v>100</v>
-      </c>
-      <c r="I5">
-        <v>100</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0.5</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="I6">
-        <v>100</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0.5</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.75</v>
-      </c>
-      <c r="H7">
-        <v>100</v>
-      </c>
-      <c r="I7">
-        <v>100</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>0.5</v>
-      </c>
-      <c r="C8">
-        <v>0.25</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0.5</v>
-      </c>
-      <c r="F8">
-        <v>0.25</v>
-      </c>
-      <c r="H8">
-        <v>100</v>
-      </c>
-      <c r="I8">
-        <v>100</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>0.5</v>
-      </c>
-      <c r="C9">
-        <v>0.25</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="H9">
-        <v>100</v>
-      </c>
-      <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>0.5</v>
-      </c>
-      <c r="C10">
-        <v>0.25</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.75</v>
-      </c>
-      <c r="H10">
-        <v>100</v>
-      </c>
-      <c r="I10">
-        <v>100</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1080,10 +989,946 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0.75</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.25</v>
+      </c>
+      <c r="H2">
+        <v>300</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.75</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>300</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.75</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.75</v>
+      </c>
+      <c r="H4">
+        <v>300</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0.25</v>
+      </c>
+      <c r="H5">
+        <v>300</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.75</v>
+      </c>
+      <c r="H7">
+        <v>300</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>0.25</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.25</v>
+      </c>
+      <c r="H8">
+        <v>300</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <v>0.25</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="H9">
+        <v>300</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <v>0.25</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.75</v>
+      </c>
+      <c r="H10">
+        <v>300</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0.75</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>0.25</v>
+      </c>
+      <c r="G11">
+        <v>1.25</v>
+      </c>
+      <c r="H11">
+        <v>300</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>0.75</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>1.25</v>
+      </c>
+      <c r="H12">
+        <v>300</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0.75</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.75</v>
+      </c>
+      <c r="G13">
+        <v>1.25</v>
+      </c>
+      <c r="H13">
+        <v>300</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>0.25</v>
+      </c>
+      <c r="G14">
+        <v>1.25</v>
+      </c>
+      <c r="H14">
+        <v>300</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>1.25</v>
+      </c>
+      <c r="H15">
+        <v>300</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.75</v>
+      </c>
+      <c r="G16">
+        <v>1.25</v>
+      </c>
+      <c r="H16">
+        <v>300</v>
+      </c>
+      <c r="I16">
+        <v>100</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17">
+        <v>0.25</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <v>0.25</v>
+      </c>
+      <c r="G17">
+        <v>1.25</v>
+      </c>
+      <c r="H17">
+        <v>300</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>0.5</v>
+      </c>
+      <c r="C18">
+        <v>0.25</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>1.25</v>
+      </c>
+      <c r="H18">
+        <v>300</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>0.5</v>
+      </c>
+      <c r="C19">
+        <v>0.25</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.75</v>
+      </c>
+      <c r="G19">
+        <v>1.25</v>
+      </c>
+      <c r="H19">
+        <v>300</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.25</v>
+      </c>
+      <c r="H20">
+        <v>300</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>-1</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>300</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0.75</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.25</v>
+      </c>
+      <c r="H2">
+        <v>200</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.75</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <v>0.25</v>
+      </c>
+      <c r="G3">
+        <f>15/12</f>
+        <v>1.25</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,58 +1938,60 @@
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
+      <c r="A2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1167,58 +2014,28 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>0.5</v>
-      </c>
-      <c r="C3">
-        <v>0.25</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <v>20</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+      <c r="M2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
@@ -1226,49 +2043,49 @@
     <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2">
@@ -1286,20 +2103,300 @@
       <c r="F2">
         <v>0.25</v>
       </c>
-      <c r="H2" s="1">
-        <v>1000</v>
+      <c r="H2">
+        <v>100</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.75</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.75</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.75</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0.25</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.75</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>0.25</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.25</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <v>0.25</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <v>0.25</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.75</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Senarios.xlsx
+++ b/Input/Senarios.xlsx
@@ -7,8 +7,9 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1 (5)" sheetId="9" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="10" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (5)" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -226,8 +227,114 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Some where in the paper said it must be greater than one</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Some where in the paper said it must be greater than one</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+برای استفاده از میانگین خالی گذاشته شود</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+if it fill with any number the code pursue the potfo proposed by ALPM against PMP</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
   <si>
     <t>SenarioName</t>
   </si>
@@ -666,7 +773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
@@ -750,7 +857,7 @@
         <v>100</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -758,19 +865,13 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>100</v>
-      </c>
       <c r="M2">
         <v>0</v>
-      </c>
-      <c r="N2">
-        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -782,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H3">
         <v>100</v>
       </c>
       <c r="I3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -800,299 +901,12 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0.75</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.75</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>100</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0.5</v>
-      </c>
-      <c r="F5">
-        <v>0.25</v>
-      </c>
-      <c r="H5">
-        <v>100</v>
-      </c>
-      <c r="I5">
-        <v>100</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>100</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0.5</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="I6">
-        <v>100</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>100</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0.5</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.75</v>
-      </c>
-      <c r="H7">
-        <v>100</v>
-      </c>
-      <c r="I7">
-        <v>100</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>100</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>0.5</v>
-      </c>
-      <c r="C8">
-        <v>0.25</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0.5</v>
-      </c>
-      <c r="F8">
-        <v>0.25</v>
-      </c>
-      <c r="H8">
-        <v>100</v>
-      </c>
-      <c r="I8">
-        <v>100</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>100</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>0.5</v>
-      </c>
-      <c r="C9">
-        <v>0.25</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="H9">
-        <v>100</v>
-      </c>
-      <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>100</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>0.5</v>
-      </c>
-      <c r="C10">
-        <v>0.25</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.75</v>
-      </c>
-      <c r="H10">
-        <v>100</v>
-      </c>
-      <c r="I10">
-        <v>100</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>100</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
         <v>1.5</v>
       </c>
     </row>
@@ -1104,6 +918,760 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0.75</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.25</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.75</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.75</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.75</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0.25</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.75</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>0.25</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.25</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <v>0.25</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <v>0.25</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.75</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0.75</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>0.25</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>0.75</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0.75</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.75</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>0.25</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.75</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>100</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17">
+        <v>0.25</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <v>0.25</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>100</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>0.5</v>
+      </c>
+      <c r="C18">
+        <v>0.25</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0.5</v>
+      </c>
+      <c r="C19">
+        <v>0.25</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.75</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
